--- a/课程设计元器件申请表.xlsx
+++ b/课程设计元器件申请表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145F8F58-2BAC-444E-8E07-76811B5542C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8ED2BD-4690-4910-90D4-C51682AAA4EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>使用项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.37.7cfe37f9wEEarJ&amp;id=520760224986&amp;ns=1&amp;abbucket=20&amp;wwlight=cntaobao%E5%90%B4%E6%98%8E%E6%AD%A62013-%7B520760224986%7D#detail</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z0k.7385961.1997985097.d4918997.7e13778ax48WAM&amp;id=554916904960&amp;_u=t2dmg8j26111</t>
   </si>
 </sst>
 </file>
@@ -711,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -894,7 +897,9 @@
         <v>36</v>
       </c>
       <c r="I6" s="15"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
